--- a/Assets/Editor/Excels/ItemDetailsData.xlsx
+++ b/Assets/Editor/Excels/ItemDetailsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="10350"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDetails" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
   <si>
     <t>itemID</t>
   </si>
@@ -66,6 +66,9 @@
     <t>itemType</t>
   </si>
   <si>
+    <t>iconPackage</t>
+  </si>
+  <si>
     <t>itemIcon</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>物品类型</t>
   </si>
   <si>
+    <t>图集名称</t>
+  </si>
+  <si>
     <t>图片名称</t>
   </si>
   <si>
@@ -144,6 +150,9 @@
     <t>斧头</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>icon_Chop</t>
   </si>
   <si>
@@ -258,7 +267,7 @@
     <t>icon_Grape</t>
   </si>
   <si>
-    <t>木头</t>
+    <t>针叶木</t>
   </si>
   <si>
     <t>icon_NeedieWood</t>
@@ -364,6 +373,27 @@
   </si>
   <si>
     <t>Grass_Harvest</t>
+  </si>
+  <si>
+    <t>阔叶木</t>
+  </si>
+  <si>
+    <t>icon_BroadleafWood</t>
+  </si>
+  <si>
+    <t>BroadleafWood_Harvest</t>
+  </si>
+  <si>
+    <t>木头椅子图纸</t>
+  </si>
+  <si>
+    <t>Furniture01</t>
+  </si>
+  <si>
+    <t>Furniture01_19Paper</t>
+  </si>
+  <si>
+    <t>Furniture01_32Chair</t>
   </si>
 </sst>
 </file>
@@ -386,21 +416,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,21 +446,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,11 +459,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,9 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,13 +539,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,187 +579,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,11 +773,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,17 +836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +890,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,12 +1378,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1361,18 +1391,19 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,676 +1440,730 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>16</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>10</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>20</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1016</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="b">
@@ -2087,36 +2172,39 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>20</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="b">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="b">
@@ -2125,36 +2213,39 @@
       <c r="J20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="b">
@@ -2163,36 +2254,39 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="b">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="b">
@@ -2201,36 +2295,39 @@
       <c r="J22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="b">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="b">
@@ -2239,36 +2336,39 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>20</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="b">
@@ -2277,36 +2377,39 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>20</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1022</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="b">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="b">
@@ -2315,36 +2418,39 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>20</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1023</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="b">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="b">
@@ -2353,36 +2459,39 @@
       <c r="J26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>20</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1024</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="b">
@@ -2391,36 +2500,39 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>20</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="b">
+        <v>94</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="b">
@@ -2429,74 +2541,80 @@
       <c r="J28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>20</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1026</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>20</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1027</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="b">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="b">
@@ -2505,36 +2623,39 @@
       <c r="J30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>20</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1028</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="b">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="b">
@@ -2543,36 +2664,39 @@
       <c r="J31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>20</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1" t="b">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="b">
@@ -2581,36 +2705,39 @@
       <c r="J32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>20</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1030</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="b">
@@ -2619,11 +2746,96 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>20</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>1032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>90</v>
+      </c>
+      <c r="M35">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Excels/ItemDetailsData.xlsx
+++ b/Assets/Editor/Excels/ItemDetailsData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
   <si>
     <t>itemID</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Furniture01_32Chair</t>
+  </si>
+  <si>
+    <t>储物箱图纸</t>
+  </si>
+  <si>
+    <t>Box_covered</t>
   </si>
 </sst>
 </file>
@@ -402,14 +408,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -422,9 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,43 +453,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,8 +466,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +498,44 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -505,24 +550,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,29 +560,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,13 +585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +621,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +669,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,37 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,97 +729,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +794,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -803,17 +818,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,8 +832,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,15 +843,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,13 +862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,133 +896,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1378,12 +1384,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2838,6 +2844,47 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>1033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>300</v>
+      </c>
+      <c r="M36">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Editor/Excels/ItemDetailsData.xlsx
+++ b/Assets/Editor/Excels/ItemDetailsData.xlsx
@@ -998,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1144,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1510,1602 +1513,1602 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1" style="49"/>
-    <col min="2" max="2" width="16" customWidth="1" style="49"/>
-    <col min="3" max="3" width="9.375" customWidth="1" style="49"/>
-    <col min="4" max="4" width="19.125" customWidth="1" style="49"/>
-    <col min="5" max="6" width="21.5" customWidth="1" style="49"/>
-    <col min="7" max="7" width="23.5" customWidth="1" style="49"/>
-    <col min="8" max="8" width="17.25" customWidth="1" style="49"/>
-    <col min="9" max="9" width="9.5" customWidth="1" style="49"/>
-    <col min="10" max="10" width="12.875" customWidth="1" style="49"/>
-    <col min="11" max="11" width="15.125" customWidth="1" style="49"/>
-    <col min="12" max="12" width="14.875" customWidth="1" style="49"/>
-    <col min="13" max="13" width="15" customWidth="1" style="49"/>
-    <col min="14" max="14" width="16.125" customWidth="1" style="49"/>
+    <col min="1" max="1" width="7.5" customWidth="1" style="50"/>
+    <col min="2" max="2" width="16" customWidth="1" style="50"/>
+    <col min="3" max="3" width="9.375" customWidth="1" style="50"/>
+    <col min="4" max="4" width="19.125" customWidth="1" style="50"/>
+    <col min="5" max="6" width="21.5" customWidth="1" style="50"/>
+    <col min="7" max="7" width="23.5" customWidth="1" style="50"/>
+    <col min="8" max="8" width="17.25" customWidth="1" style="50"/>
+    <col min="9" max="9" width="9.5" customWidth="1" style="50"/>
+    <col min="10" max="10" width="12.875" customWidth="1" style="50"/>
+    <col min="11" max="11" width="15.125" customWidth="1" style="50"/>
+    <col min="12" max="12" width="14.875" customWidth="1" style="50"/>
+    <col min="13" max="13" width="15" customWidth="1" style="50"/>
+    <col min="14" max="14" width="16.125" customWidth="1" style="50"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="27">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="50">
         <v>1001</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="50">
         <v>5</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="49" t="s">
+      <c r="F4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="50">
         <v>1</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="49">
+      <c r="J4" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="50">
         <v>0</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49">
+      <c r="A5" s="50">
         <v>1002</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="50">
         <v>4</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="50">
         <v>1</v>
       </c>
-      <c r="J5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="49">
+      <c r="J5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="50">
         <v>0</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49">
+      <c r="A6" s="50">
         <v>1003</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="50">
         <v>6</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="50">
         <v>1</v>
       </c>
-      <c r="J6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="49">
+      <c r="J6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="50">
         <v>0</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49">
+      <c r="A7" s="50">
         <v>1004</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="50">
         <v>7</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="50">
         <v>1</v>
       </c>
-      <c r="J7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="49">
+      <c r="J7" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="50">
         <v>0</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49">
+      <c r="A8" s="50">
         <v>1005</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="50">
         <v>9</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="49" t="s">
+      <c r="F8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="50">
         <v>1</v>
       </c>
-      <c r="J8" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="49">
+      <c r="J8" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="50">
         <v>0</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49">
+      <c r="A9" s="50">
         <v>1006</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="50">
         <v>8</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="50">
         <v>1</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="49">
+      <c r="J9" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="50">
         <v>0</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="50">
         <v>1007</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="50">
         <v>1</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="50">
         <v>1</v>
       </c>
-      <c r="J10" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="49">
+      <c r="J10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="50">
         <v>10</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49">
+      <c r="A11" s="50">
         <v>1008</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="50">
         <v>1</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="50">
         <v>1</v>
       </c>
-      <c r="J11" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="49">
+      <c r="J11" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="50">
         <v>12</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49">
+      <c r="A12" s="50">
         <v>1009</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="50">
         <v>1</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="49" t="s">
+      <c r="D12" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="50">
         <v>1</v>
       </c>
-      <c r="J12" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="49">
+      <c r="J12" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="50">
         <v>14</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49">
+      <c r="A13" s="50">
         <v>1010</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="50">
         <v>1</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="50">
         <v>1</v>
       </c>
-      <c r="J13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="49">
+      <c r="J13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="50">
         <v>16</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49">
+      <c r="A14" s="50">
         <v>1011</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="50">
         <v>2</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="49" t="s">
+      <c r="D14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="50">
         <v>0</v>
       </c>
-      <c r="J14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="49">
+      <c r="J14" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="50">
         <v>10</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49">
+      <c r="A15" s="50">
         <v>1012</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="50">
         <v>2</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="49" t="s">
+      <c r="D15" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="50">
         <v>0</v>
       </c>
-      <c r="J15" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="49">
+      <c r="J15" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="50">
         <v>10</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49">
+      <c r="A16" s="50">
         <v>1013</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="50">
         <v>2</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="49" t="s">
+      <c r="D16" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="49" t="s">
+      <c r="F16" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="50">
         <v>0</v>
       </c>
-      <c r="J16" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="49">
+      <c r="J16" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="50">
         <v>10</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49">
+      <c r="A17" s="50">
         <v>1014</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="50">
         <v>2</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="49" t="s">
+      <c r="D17" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="49" t="s">
+      <c r="F17" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="50">
         <v>0</v>
       </c>
-      <c r="J17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="49">
+      <c r="J17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="50">
         <v>10</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49">
+      <c r="A18" s="50">
         <v>1015</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="50">
         <v>2</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="49" t="s">
+      <c r="D18" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="50">
         <v>2</v>
       </c>
-      <c r="J18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="49">
+      <c r="J18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="50">
         <v>20</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49">
+      <c r="A19" s="50">
         <v>1016</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="50">
         <v>1</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="49" t="s">
+      <c r="D19" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="50">
         <v>1</v>
       </c>
-      <c r="J19" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="49">
+      <c r="J19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="50">
         <v>20</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49">
+      <c r="A20" s="50">
         <v>1017</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="50">
         <v>10</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="49" t="s">
+      <c r="D20" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="49" t="s">
+      <c r="F20" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="50">
         <v>0</v>
       </c>
-      <c r="J20" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="49">
+      <c r="J20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="50">
         <v>0</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49">
+      <c r="A21" s="50">
         <v>1018</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="50">
         <v>1</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="49" t="s">
+      <c r="D21" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="49" t="s">
+      <c r="F21" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="50">
         <v>1</v>
       </c>
-      <c r="J21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="49">
+      <c r="J21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="50">
         <v>20</v>
       </c>
-      <c r="N21" s="49">
+      <c r="N21" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49">
+      <c r="A22" s="50">
         <v>1019</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="50">
         <v>10</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="50">
         <v>0</v>
       </c>
-      <c r="J22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="49">
+      <c r="J22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="50">
         <v>0</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N22" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49">
+      <c r="A23" s="50">
         <v>1020</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="50">
         <v>3</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="49" t="s">
+      <c r="D23" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="49" t="s">
+      <c r="F23" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="50">
         <v>1</v>
       </c>
-      <c r="J23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="49">
+      <c r="J23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="50">
         <v>20</v>
       </c>
-      <c r="N23" s="49">
+      <c r="N23" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49">
+      <c r="A24" s="50">
         <v>1021</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="50">
         <v>10</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="49" t="s">
+      <c r="D24" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="49" t="s">
+      <c r="F24" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="50">
         <v>1</v>
       </c>
-      <c r="J24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="49">
+      <c r="J24" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="50">
         <v>20</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49">
+      <c r="A25" s="50">
         <v>1022</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="50">
         <v>2</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="49" t="s">
+      <c r="D25" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="50">
         <v>1</v>
       </c>
-      <c r="J25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="49">
+      <c r="J25" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="50">
         <v>20</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49">
+      <c r="A26" s="50">
         <v>1023</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="50">
         <v>10</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="50">
         <v>0</v>
       </c>
-      <c r="J26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="49">
+      <c r="J26" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="50">
         <v>20</v>
       </c>
-      <c r="N26" s="49">
+      <c r="N26" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49">
+      <c r="A27" s="50">
         <v>1024</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="50">
         <v>3</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="50">
         <v>1</v>
       </c>
-      <c r="J27" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="49">
+      <c r="J27" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="50">
         <v>20</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <v>1025</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="50">
         <v>10</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="49" t="s">
+      <c r="D28" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="49" t="s">
+      <c r="F28" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="50">
         <v>0</v>
       </c>
-      <c r="J28" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="49">
+      <c r="J28" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="50">
         <v>20</v>
       </c>
-      <c r="N28" s="49">
+      <c r="N28" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49">
+      <c r="A29" s="50">
         <v>1026</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="50">
         <v>2</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="49" t="s">
+      <c r="D29" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="50">
         <v>2</v>
       </c>
-      <c r="J29" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="49">
+      <c r="J29" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="50">
         <v>20</v>
       </c>
-      <c r="N29" s="49">
+      <c r="N29" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49">
+      <c r="A30" s="50">
         <v>1027</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="50">
         <v>10</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="49" t="s">
+      <c r="D30" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="50">
         <v>0</v>
       </c>
-      <c r="J30" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="49">
+      <c r="J30" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="50">
         <v>20</v>
       </c>
-      <c r="N30" s="49">
+      <c r="N30" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49">
+      <c r="A31" s="50">
         <v>1028</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="50">
         <v>10</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="49" t="s">
+      <c r="D31" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="50">
         <v>0</v>
       </c>
-      <c r="J31" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="49">
+      <c r="J31" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="50">
         <v>20</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49">
+      <c r="A32" s="50">
         <v>1029</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="50">
         <v>10</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="D32" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="49" t="s">
+      <c r="F32" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="50">
         <v>0</v>
       </c>
-      <c r="J32" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="49">
+      <c r="J32" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="50">
         <v>20</v>
       </c>
-      <c r="N32" s="49">
+      <c r="N32" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49">
+      <c r="A33" s="50">
         <v>1030</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="50">
         <v>2</v>
       </c>
-      <c r="D33" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="49" t="s">
+      <c r="D33" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="50">
         <v>1</v>
       </c>
-      <c r="J33" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="49">
+      <c r="J33" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="50">
         <v>20</v>
       </c>
-      <c r="N33" s="49">
+      <c r="N33" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49">
+      <c r="A34" s="50">
         <v>1031</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="50">
         <v>2</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="49" t="s">
+      <c r="D34" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="49" t="s">
+      <c r="F34" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="50">
         <v>2</v>
       </c>
-      <c r="J34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="49">
+      <c r="J34" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="50">
         <v>20</v>
       </c>
-      <c r="N34" s="49">
+      <c r="N34" s="50">
         <v>0.40000000596046448</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49">
+      <c r="A35" s="50">
         <v>1032</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="50">
         <v>3</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="50">
         <v>4</v>
       </c>
-      <c r="J35" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="49">
+      <c r="J35" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="50">
         <v>90</v>
       </c>
-      <c r="N35" s="49">
+      <c r="N35" s="50">
         <v>0.800000011920929</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49">
+      <c r="A36" s="50">
         <v>1033</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="50">
         <v>3</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="49" t="s">
+      <c r="F36" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="50">
         <v>4</v>
       </c>
-      <c r="J36" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="49">
+      <c r="J36" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="50">
         <v>300</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36" s="50">
         <v>0.800000011920929</v>
       </c>
     </row>
